--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H2">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I2">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J2">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>2187.895610491205</v>
+        <v>2038.521628905614</v>
       </c>
       <c r="R2">
-        <v>19691.06049442085</v>
+        <v>18346.69466015052</v>
       </c>
       <c r="S2">
-        <v>0.003419196068749456</v>
+        <v>0.006646190351280707</v>
       </c>
       <c r="T2">
-        <v>0.003844165420094975</v>
+        <v>0.007402576461546661</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H3">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I3">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J3">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>2341.36344163538</v>
+        <v>2472.973668087247</v>
       </c>
       <c r="R3">
-        <v>21072.27097471842</v>
+        <v>22256.76301278522</v>
       </c>
       <c r="S3">
-        <v>0.00365903228507143</v>
+        <v>0.00806263396902801</v>
       </c>
       <c r="T3">
-        <v>0.004113810702416721</v>
+        <v>0.00898022194409347</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H4">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I4">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J4">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>1175.675074476157</v>
+        <v>1396.116186415247</v>
       </c>
       <c r="R4">
-        <v>10581.07567028542</v>
+        <v>12565.04567773722</v>
       </c>
       <c r="S4">
-        <v>0.00183731964793014</v>
+        <v>0.004551756427721207</v>
       </c>
       <c r="T4">
-        <v>0.002065678748518607</v>
+        <v>0.005069780311671305</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H5">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I5">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J5">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>2679.186217303263</v>
+        <v>1522.569921086692</v>
       </c>
       <c r="R5">
-        <v>16075.11730381958</v>
+        <v>9135.419526520151</v>
       </c>
       <c r="S5">
-        <v>0.004186974432292215</v>
+        <v>0.004964033432458191</v>
       </c>
       <c r="T5">
-        <v>0.003138246925848526</v>
+        <v>0.003685985012889346</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H6">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I6">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J6">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>1343.216502983049</v>
+        <v>1501.95824465438</v>
       </c>
       <c r="R6">
-        <v>12088.94852684744</v>
+        <v>13517.62420188942</v>
       </c>
       <c r="S6">
-        <v>0.002099149778653251</v>
+        <v>0.004896833201130896</v>
       </c>
       <c r="T6">
-        <v>0.002360051552600841</v>
+        <v>0.005454129399683328</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J7">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>21493.12153655753</v>
+        <v>18959.96634477947</v>
       </c>
       <c r="R7">
-        <v>193438.0938290178</v>
+        <v>170639.6971030152</v>
       </c>
       <c r="S7">
-        <v>0.03358898674624274</v>
+        <v>0.06181516231884668</v>
       </c>
       <c r="T7">
-        <v>0.03776373707435852</v>
+        <v>0.06885018956160407</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J8">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
         <v>23000.73585367437</v>
@@ -948,10 +948,10 @@
         <v>207006.6226830693</v>
       </c>
       <c r="S8">
-        <v>0.03594505388288231</v>
+        <v>0.07498927974834096</v>
       </c>
       <c r="T8">
-        <v>0.0404126380534137</v>
+        <v>0.08352361996770638</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J9">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>11549.42088738148</v>
+        <v>12985.05521476641</v>
       </c>
       <c r="R9">
-        <v>103944.7879864333</v>
+        <v>116865.4969328976</v>
       </c>
       <c r="S9">
-        <v>0.01804918585014289</v>
+        <v>0.04233516458962407</v>
       </c>
       <c r="T9">
-        <v>0.02029250581449208</v>
+        <v>0.04715322257155415</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J10">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>26319.38869087115</v>
+        <v>14161.18134438192</v>
       </c>
       <c r="R10">
-        <v>157916.3321452269</v>
+        <v>84967.08806629149</v>
       </c>
       <c r="S10">
-        <v>0.04113137295591154</v>
+        <v>0.04616968762028534</v>
       </c>
       <c r="T10">
-        <v>0.0308290405929591</v>
+        <v>0.03428276197847462</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J11">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>13195.28930452165</v>
+        <v>13969.47541106007</v>
       </c>
       <c r="R11">
-        <v>118757.6037406948</v>
+        <v>125725.2786995406</v>
       </c>
       <c r="S11">
-        <v>0.02062131351225795</v>
+        <v>0.04554466892719896</v>
       </c>
       <c r="T11">
-        <v>0.02318432132198615</v>
+        <v>0.05072799247834529</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H12">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I12">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J12">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>24757.71580939411</v>
+        <v>23758.40533567589</v>
       </c>
       <c r="R12">
-        <v>222819.442284547</v>
+        <v>213825.648021083</v>
       </c>
       <c r="S12">
-        <v>0.03869082426089399</v>
+        <v>0.07745950892292262</v>
       </c>
       <c r="T12">
-        <v>0.04349967820157755</v>
+        <v>0.08627497967543131</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H13">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I13">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J13">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>26494.32194870554</v>
+        <v>28821.82359890496</v>
       </c>
       <c r="R13">
-        <v>238448.8975383498</v>
+        <v>259396.4123901447</v>
       </c>
       <c r="S13">
-        <v>0.04140475487807124</v>
+        <v>0.0939677672256015</v>
       </c>
       <c r="T13">
-        <v>0.04655092124857413</v>
+        <v>0.1046620010927452</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H14">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I14">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J14">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>13303.66459830052</v>
+        <v>16271.34771700147</v>
       </c>
       <c r="R14">
-        <v>119732.9813847047</v>
+        <v>146442.1294530132</v>
       </c>
       <c r="S14">
-        <v>0.02079068008379886</v>
+        <v>0.05304946126920671</v>
       </c>
       <c r="T14">
-        <v>0.0233747383394799</v>
+        <v>0.05908688625108185</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H15">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I15">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J15">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>30317.04558955073</v>
+        <v>17745.13099304504</v>
       </c>
       <c r="R15">
-        <v>181902.2735373044</v>
+        <v>106470.7859582703</v>
       </c>
       <c r="S15">
-        <v>0.04737882493059947</v>
+        <v>0.05785443564388536</v>
       </c>
       <c r="T15">
-        <v>0.03551166936726884</v>
+        <v>0.04295913506910667</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H16">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I16">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J16">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>15199.52427889208</v>
+        <v>17504.9076094013</v>
       </c>
       <c r="R16">
-        <v>136795.7185100288</v>
+        <v>157544.1684846117</v>
       </c>
       <c r="S16">
-        <v>0.02375348870030499</v>
+        <v>0.0570712355483425</v>
       </c>
       <c r="T16">
-        <v>0.02670579224832985</v>
+        <v>0.06356636848659256</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H17">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I17">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J17">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>8909.256761982875</v>
+        <v>10099.29673085798</v>
       </c>
       <c r="R17">
-        <v>53455.54057189725</v>
+        <v>60595.78038514785</v>
       </c>
       <c r="S17">
-        <v>0.01392319430140097</v>
+        <v>0.0329267286329376</v>
       </c>
       <c r="T17">
-        <v>0.0104357985511849</v>
+        <v>0.02444935754680872</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H18">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I18">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J18">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>9534.187999932165</v>
+        <v>12251.67029256366</v>
       </c>
       <c r="R18">
-        <v>57205.12799959299</v>
+        <v>73510.02175538195</v>
       </c>
       <c r="S18">
-        <v>0.01489982336075322</v>
+        <v>0.03994411034491861</v>
       </c>
       <c r="T18">
-        <v>0.01116780759321973</v>
+        <v>0.02966003232811795</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H19">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I19">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J19">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>4787.427268899642</v>
+        <v>6916.675024405271</v>
       </c>
       <c r="R19">
-        <v>28724.56361339785</v>
+        <v>41500.05014643163</v>
       </c>
       <c r="S19">
-        <v>0.00748168807449207</v>
+        <v>0.02255042976160397</v>
       </c>
       <c r="T19">
-        <v>0.005607721035706974</v>
+        <v>0.01674455808294683</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H20">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I20">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J20">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>10909.8248603193</v>
+        <v>7543.155396780675</v>
       </c>
       <c r="R20">
-        <v>43639.29944127719</v>
+        <v>30172.6215871227</v>
       </c>
       <c r="S20">
-        <v>0.01704963897467391</v>
+        <v>0.0245929431924688</v>
       </c>
       <c r="T20">
-        <v>0.008519433776401171</v>
+        <v>0.01217413504074508</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H21">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I21">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J21">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>5469.667133397644</v>
+        <v>7441.040494756258</v>
       </c>
       <c r="R21">
-        <v>32818.00280038586</v>
+        <v>44646.24296853755</v>
       </c>
       <c r="S21">
-        <v>0.008547877819309015</v>
+        <v>0.0242600180633295</v>
       </c>
       <c r="T21">
-        <v>0.006406858155637082</v>
+        <v>0.01801399289721856</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H22">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I22">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J22">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>86576.67724445401</v>
+        <v>15144.50745918815</v>
       </c>
       <c r="R22">
-        <v>779190.0952000861</v>
+        <v>136300.5671326933</v>
       </c>
       <c r="S22">
-        <v>0.1353001638013102</v>
+        <v>0.04937562492490744</v>
       </c>
       <c r="T22">
-        <v>0.1521165211237538</v>
+        <v>0.05499493988655382</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H23">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I23">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J23">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>92649.51491580551</v>
+        <v>18372.12204750036</v>
       </c>
       <c r="R23">
-        <v>833845.6342422497</v>
+        <v>165349.0984275033</v>
       </c>
       <c r="S23">
-        <v>0.1447906635273812</v>
+        <v>0.05989861405110557</v>
       </c>
       <c r="T23">
-        <v>0.1627865880438196</v>
+        <v>0.06671552378401852</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H24">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I24">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J24">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>46522.34822319501</v>
+        <v>10371.97334541403</v>
       </c>
       <c r="R24">
-        <v>418701.1340087552</v>
+        <v>93347.76010872627</v>
       </c>
       <c r="S24">
-        <v>0.07270412234979939</v>
+        <v>0.03381573596991408</v>
       </c>
       <c r="T24">
-        <v>0.08174046396165664</v>
+        <v>0.03766421933318926</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H25">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I25">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J25">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>106017.4165993129</v>
+        <v>11311.41862812217</v>
       </c>
       <c r="R25">
-        <v>636104.4995958777</v>
+        <v>67868.51176873302</v>
       </c>
       <c r="S25">
-        <v>0.1656817319423939</v>
+        <v>0.03687860863457301</v>
       </c>
       <c r="T25">
-        <v>0.1241827946039841</v>
+        <v>0.02738377985821364</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H26">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I26">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J26">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>53152.08874251502</v>
+        <v>11158.29114443533</v>
       </c>
       <c r="R26">
-        <v>478368.7986826352</v>
+        <v>100424.620299918</v>
       </c>
       <c r="S26">
-        <v>0.08306493783468381</v>
+        <v>0.0363793672283674</v>
       </c>
       <c r="T26">
-        <v>0.09338901754271649</v>
+        <v>0.04051961097966159</v>
       </c>
     </row>
   </sheetData>
